--- a/Exportaciones FOB/Glosario.xlsx
+++ b/Exportaciones FOB/Glosario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Exportaciones\FOB\Exportaciones FOB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\Exportaciones FOB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1123D46-2914-4569-BDAC-40A2037E299D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F10797A-BBF9-4D1B-8DE8-998CA1361033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75A2E5EE-5437-407E-83B7-8A7DB14BB825}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{75A2E5EE-5437-407E-83B7-8A7DB14BB825}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,14 +193,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,20 +273,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -599,209 +630,209 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="79.44140625" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{139FCC1B-12EF-4C3D-A65F-989AD7BDEB00}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{CB3AAC1A-CFF4-47DA-A818-EBDB2A48B34D}"/>
